--- a/WebUITest/Data/data.xlsx
+++ b/WebUITest/Data/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF78EA00-0BF1-496F-903E-B72A61F5333D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3341F665-DC4D-4755-B70F-CD3C9CECD3AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="229">
   <si>
     <t>填写须知：</t>
   </si>
@@ -154,6 +154,558 @@
   <si>
     <t>测试开发工程师</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙燕芬9</t>
+  </si>
+  <si>
+    <t>孙燕芬10</t>
+  </si>
+  <si>
+    <t>孙燕芬11</t>
+  </si>
+  <si>
+    <t>孙燕芬12</t>
+  </si>
+  <si>
+    <t>孙燕芬13</t>
+  </si>
+  <si>
+    <t>孙燕芬14</t>
+  </si>
+  <si>
+    <t>孙燕芬15</t>
+  </si>
+  <si>
+    <t>孙燕芬16</t>
+  </si>
+  <si>
+    <t>孙燕芬17</t>
+  </si>
+  <si>
+    <t>孙燕芬18</t>
+  </si>
+  <si>
+    <t>孙燕芬19</t>
+  </si>
+  <si>
+    <t>孙燕芬20</t>
+  </si>
+  <si>
+    <t>孙燕芬21</t>
+  </si>
+  <si>
+    <t>孙燕芬22</t>
+  </si>
+  <si>
+    <t>孙燕芬23</t>
+  </si>
+  <si>
+    <t>孙燕芬24</t>
+  </si>
+  <si>
+    <t>孙燕芬25</t>
+  </si>
+  <si>
+    <t>孙燕芬26</t>
+  </si>
+  <si>
+    <t>孙燕芬27</t>
+  </si>
+  <si>
+    <t>孙燕芬28</t>
+  </si>
+  <si>
+    <t>孙燕芬29</t>
+  </si>
+  <si>
+    <t>孙燕芬30</t>
+  </si>
+  <si>
+    <t>孙燕芬31</t>
+  </si>
+  <si>
+    <t>孙燕芬32</t>
+  </si>
+  <si>
+    <t>孙燕芬33</t>
+  </si>
+  <si>
+    <t>孙燕芬34</t>
+  </si>
+  <si>
+    <t>孙燕芬35</t>
+  </si>
+  <si>
+    <t>孙燕芬36</t>
+  </si>
+  <si>
+    <t>孙燕芬37</t>
+  </si>
+  <si>
+    <t>孙燕芬38</t>
+  </si>
+  <si>
+    <t>孙燕芬39</t>
+  </si>
+  <si>
+    <t>孙燕芬40</t>
+  </si>
+  <si>
+    <t>孙燕芬41</t>
+  </si>
+  <si>
+    <t>孙燕芬42</t>
+  </si>
+  <si>
+    <t>孙燕芬43</t>
+  </si>
+  <si>
+    <t>孙燕芬44</t>
+  </si>
+  <si>
+    <t>孙燕芬45</t>
+  </si>
+  <si>
+    <t>孙燕芬46</t>
+  </si>
+  <si>
+    <t>孙燕芬47</t>
+  </si>
+  <si>
+    <t>孙燕芬48</t>
+  </si>
+  <si>
+    <t>孙燕芬49</t>
+  </si>
+  <si>
+    <t>孙燕芬50</t>
+  </si>
+  <si>
+    <t>孙燕芬51</t>
+  </si>
+  <si>
+    <t>孙燕芬52</t>
+  </si>
+  <si>
+    <t>孙燕芬53</t>
+  </si>
+  <si>
+    <t>孙燕芬54</t>
+  </si>
+  <si>
+    <t>孙燕芬55</t>
+  </si>
+  <si>
+    <t>孙燕芬56</t>
+  </si>
+  <si>
+    <t>孙燕芬57</t>
+  </si>
+  <si>
+    <t>孙燕芬58</t>
+  </si>
+  <si>
+    <t>孙燕芬59</t>
+  </si>
+  <si>
+    <t>孙燕芬60</t>
+  </si>
+  <si>
+    <t>孙燕芬61</t>
+  </si>
+  <si>
+    <t>孙燕芬62</t>
+  </si>
+  <si>
+    <t>孙燕芬63</t>
+  </si>
+  <si>
+    <t>孙燕芬64</t>
+  </si>
+  <si>
+    <t>孙燕芬65</t>
+  </si>
+  <si>
+    <t>孙燕芬66</t>
+  </si>
+  <si>
+    <t>孙燕芬67</t>
+  </si>
+  <si>
+    <t>孙燕芬68</t>
+  </si>
+  <si>
+    <t>孙燕芬69</t>
+  </si>
+  <si>
+    <t>孙燕芬70</t>
+  </si>
+  <si>
+    <t>孙燕芬71</t>
+  </si>
+  <si>
+    <t>孙燕芬72</t>
+  </si>
+  <si>
+    <t>孙燕芬73</t>
+  </si>
+  <si>
+    <t>孙燕芬74</t>
+  </si>
+  <si>
+    <t>孙燕芬75</t>
+  </si>
+  <si>
+    <t>孙燕芬76</t>
+  </si>
+  <si>
+    <t>孙燕芬77</t>
+  </si>
+  <si>
+    <t>孙燕芬78</t>
+  </si>
+  <si>
+    <t>孙燕芬79</t>
+  </si>
+  <si>
+    <t>孙燕芬80</t>
+  </si>
+  <si>
+    <t>孙燕芬81</t>
+  </si>
+  <si>
+    <t>孙燕芬82</t>
+  </si>
+  <si>
+    <t>孙燕芬83</t>
+  </si>
+  <si>
+    <t>孙燕芬84</t>
+  </si>
+  <si>
+    <t>孙燕芬85</t>
+  </si>
+  <si>
+    <t>孙燕芬86</t>
+  </si>
+  <si>
+    <t>孙燕芬87</t>
+  </si>
+  <si>
+    <t>孙燕芬88</t>
+  </si>
+  <si>
+    <t>孙燕芬89</t>
+  </si>
+  <si>
+    <t>孙燕芬90</t>
+  </si>
+  <si>
+    <t>孙燕芬91</t>
+  </si>
+  <si>
+    <t>孙燕芬92</t>
+  </si>
+  <si>
+    <t>孙燕芬93</t>
+  </si>
+  <si>
+    <t>孙燕芬94</t>
+  </si>
+  <si>
+    <t>孙燕芬95</t>
+  </si>
+  <si>
+    <t>孙燕芬96</t>
+  </si>
+  <si>
+    <t>孙燕芬97</t>
+  </si>
+  <si>
+    <t>孙燕芬98</t>
+  </si>
+  <si>
+    <t>孙燕芬99</t>
+  </si>
+  <si>
+    <t>孙燕芬100</t>
+  </si>
+  <si>
+    <t>testwework09</t>
+  </si>
+  <si>
+    <t>testwework10</t>
+  </si>
+  <si>
+    <t>testwework11</t>
+  </si>
+  <si>
+    <t>testwework12</t>
+  </si>
+  <si>
+    <t>testwework13</t>
+  </si>
+  <si>
+    <t>testwework14</t>
+  </si>
+  <si>
+    <t>testwework15</t>
+  </si>
+  <si>
+    <t>testwework16</t>
+  </si>
+  <si>
+    <t>testwework17</t>
+  </si>
+  <si>
+    <t>testwework18</t>
+  </si>
+  <si>
+    <t>testwework19</t>
+  </si>
+  <si>
+    <t>testwework20</t>
+  </si>
+  <si>
+    <t>testwework21</t>
+  </si>
+  <si>
+    <t>testwework22</t>
+  </si>
+  <si>
+    <t>testwework23</t>
+  </si>
+  <si>
+    <t>testwework24</t>
+  </si>
+  <si>
+    <t>testwework25</t>
+  </si>
+  <si>
+    <t>testwework26</t>
+  </si>
+  <si>
+    <t>testwework27</t>
+  </si>
+  <si>
+    <t>testwework28</t>
+  </si>
+  <si>
+    <t>testwework29</t>
+  </si>
+  <si>
+    <t>testwework30</t>
+  </si>
+  <si>
+    <t>testwework31</t>
+  </si>
+  <si>
+    <t>testwework32</t>
+  </si>
+  <si>
+    <t>testwework33</t>
+  </si>
+  <si>
+    <t>testwework34</t>
+  </si>
+  <si>
+    <t>testwework35</t>
+  </si>
+  <si>
+    <t>testwework36</t>
+  </si>
+  <si>
+    <t>testwework37</t>
+  </si>
+  <si>
+    <t>testwework38</t>
+  </si>
+  <si>
+    <t>testwework39</t>
+  </si>
+  <si>
+    <t>testwework40</t>
+  </si>
+  <si>
+    <t>testwework41</t>
+  </si>
+  <si>
+    <t>testwework42</t>
+  </si>
+  <si>
+    <t>testwework43</t>
+  </si>
+  <si>
+    <t>testwework44</t>
+  </si>
+  <si>
+    <t>testwework45</t>
+  </si>
+  <si>
+    <t>testwework46</t>
+  </si>
+  <si>
+    <t>testwework47</t>
+  </si>
+  <si>
+    <t>testwework48</t>
+  </si>
+  <si>
+    <t>testwework49</t>
+  </si>
+  <si>
+    <t>testwework50</t>
+  </si>
+  <si>
+    <t>testwework51</t>
+  </si>
+  <si>
+    <t>testwework52</t>
+  </si>
+  <si>
+    <t>testwework53</t>
+  </si>
+  <si>
+    <t>testwework54</t>
+  </si>
+  <si>
+    <t>testwework55</t>
+  </si>
+  <si>
+    <t>testwework56</t>
+  </si>
+  <si>
+    <t>testwework57</t>
+  </si>
+  <si>
+    <t>testwework58</t>
+  </si>
+  <si>
+    <t>testwework59</t>
+  </si>
+  <si>
+    <t>testwework60</t>
+  </si>
+  <si>
+    <t>testwework61</t>
+  </si>
+  <si>
+    <t>testwework62</t>
+  </si>
+  <si>
+    <t>testwework63</t>
+  </si>
+  <si>
+    <t>testwework64</t>
+  </si>
+  <si>
+    <t>testwework65</t>
+  </si>
+  <si>
+    <t>testwework66</t>
+  </si>
+  <si>
+    <t>testwework67</t>
+  </si>
+  <si>
+    <t>testwework68</t>
+  </si>
+  <si>
+    <t>testwework69</t>
+  </si>
+  <si>
+    <t>testwework70</t>
+  </si>
+  <si>
+    <t>testwework71</t>
+  </si>
+  <si>
+    <t>testwework72</t>
+  </si>
+  <si>
+    <t>testwework73</t>
+  </si>
+  <si>
+    <t>testwework74</t>
+  </si>
+  <si>
+    <t>testwework75</t>
+  </si>
+  <si>
+    <t>testwework76</t>
+  </si>
+  <si>
+    <t>testwework77</t>
+  </si>
+  <si>
+    <t>testwework78</t>
+  </si>
+  <si>
+    <t>testwework79</t>
+  </si>
+  <si>
+    <t>testwework80</t>
+  </si>
+  <si>
+    <t>testwework81</t>
+  </si>
+  <si>
+    <t>testwework82</t>
+  </si>
+  <si>
+    <t>testwework83</t>
+  </si>
+  <si>
+    <t>testwework84</t>
+  </si>
+  <si>
+    <t>testwework85</t>
+  </si>
+  <si>
+    <t>testwework86</t>
+  </si>
+  <si>
+    <t>testwework87</t>
+  </si>
+  <si>
+    <t>testwework88</t>
+  </si>
+  <si>
+    <t>testwework89</t>
+  </si>
+  <si>
+    <t>testwework90</t>
+  </si>
+  <si>
+    <t>testwework91</t>
+  </si>
+  <si>
+    <t>testwework92</t>
+  </si>
+  <si>
+    <t>testwework93</t>
+  </si>
+  <si>
+    <t>testwework94</t>
+  </si>
+  <si>
+    <t>testwework95</t>
+  </si>
+  <si>
+    <t>testwework96</t>
+  </si>
+  <si>
+    <t>testwework97</t>
+  </si>
+  <si>
+    <t>testwework98</t>
+  </si>
+  <si>
+    <t>testwework99</t>
+  </si>
+  <si>
+    <t>testwework100</t>
   </si>
 </sst>
 </file>
@@ -562,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -742,7 +1294,7 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -929,6 +1481,1360 @@
       </c>
       <c r="G18">
         <v>13800000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19">
+        <v>13800000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>13800000010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21">
+        <v>13800000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22">
+        <v>13800000012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23">
+        <v>13800000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24">
+        <v>13800000014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25">
+        <v>13800000015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26">
+        <v>13800000016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27">
+        <v>13800000017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28">
+        <v>13800000018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29">
+        <v>13800000019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30">
+        <v>13800000020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31">
+        <v>13800000021</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <v>13800000022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33">
+        <v>13800000023</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34">
+        <v>13800000024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35">
+        <v>13800000025</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36">
+        <v>13800000026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>13800000027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38">
+        <v>13800000028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39">
+        <v>13800000029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40">
+        <v>13800000030</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>87</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" t="s">
+        <v>44</v>
+      </c>
+      <c r="E61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
+        <v>180</v>
+      </c>
+      <c r="D62" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>44</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="D69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" t="s">
+        <v>44</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" t="s">
+        <v>44</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>192</v>
+      </c>
+      <c r="D74" t="s">
+        <v>44</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" t="s">
+        <v>194</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" t="s">
+        <v>44</v>
+      </c>
+      <c r="E81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" t="s">
+        <v>200</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>110</v>
+      </c>
+      <c r="B84" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>112</v>
+      </c>
+      <c r="B86" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>44</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="s">
+        <v>44</v>
+      </c>
+      <c r="E88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>120</v>
+      </c>
+      <c r="B94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
+        <v>44</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
+        <v>44</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>124</v>
+      </c>
+      <c r="B98" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>125</v>
+      </c>
+      <c r="B99" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" t="s">
+        <v>44</v>
+      </c>
+      <c r="E99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" t="s">
+        <v>44</v>
+      </c>
+      <c r="E101" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>128</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
+        <v>44</v>
+      </c>
+      <c r="E103" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>131</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>132</v>
+      </c>
+      <c r="B106" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>134</v>
+      </c>
+      <c r="B108" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B110" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E110" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
